--- a/Code/Results/Cases/Case_3_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9483729181094986</v>
+        <v>0.4693012460242301</v>
       </c>
       <c r="C2">
-        <v>0.1202972399036213</v>
+        <v>0.1639138001180811</v>
       </c>
       <c r="D2">
-        <v>0.07189197895938548</v>
+        <v>0.04385257605817827</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5181060705555041</v>
+        <v>0.8891880782175861</v>
       </c>
       <c r="G2">
-        <v>0.0008102444609863039</v>
+        <v>0.002455405213520915</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3870640394087168</v>
+        <v>0.8624332825623817</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8348842460375181</v>
+        <v>0.2716488505277255</v>
       </c>
       <c r="L2">
-        <v>0.2263083160818553</v>
+        <v>0.2971665877106915</v>
       </c>
       <c r="M2">
-        <v>0.2325222508745419</v>
+        <v>0.173335037061868</v>
       </c>
       <c r="N2">
-        <v>0.8755074473934716</v>
+        <v>1.835328718841951</v>
       </c>
       <c r="O2">
-        <v>1.56987608906141</v>
+        <v>3.154250357694863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.824728501216498</v>
+        <v>0.4344328004809768</v>
       </c>
       <c r="C3">
-        <v>0.1166529758544925</v>
+        <v>0.1626536677307229</v>
       </c>
       <c r="D3">
-        <v>0.06526264220045164</v>
+        <v>0.04152777417815656</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.495577873844816</v>
+        <v>0.8893646934460406</v>
       </c>
       <c r="G3">
-        <v>0.0008135086481915743</v>
+        <v>0.002457605324409473</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.387868113014008</v>
+        <v>0.8680153509411674</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7274812908862458</v>
+        <v>0.2392153479422348</v>
       </c>
       <c r="L3">
-        <v>0.2068301412954412</v>
+        <v>0.2937218382855562</v>
       </c>
       <c r="M3">
-        <v>0.2041273637600085</v>
+        <v>0.1660851520942295</v>
       </c>
       <c r="N3">
-        <v>0.9155822077643722</v>
+        <v>1.85281748240822</v>
       </c>
       <c r="O3">
-        <v>1.540451540230393</v>
+        <v>3.16748342244459</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7490102986960778</v>
+        <v>0.4131539817925614</v>
       </c>
       <c r="C4">
-        <v>0.114414841511028</v>
+        <v>0.1618735999780583</v>
       </c>
       <c r="D4">
-        <v>0.06117400911113435</v>
+        <v>0.04008455143407019</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4826098751419536</v>
+        <v>0.8899414794722986</v>
       </c>
       <c r="G4">
-        <v>0.0008155833305368238</v>
+        <v>0.002459029671682291</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3890145499448927</v>
+        <v>0.8718179859160138</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.661558501325942</v>
+        <v>0.2192884055372843</v>
       </c>
       <c r="L4">
-        <v>0.1951242584136352</v>
+        <v>0.2917552650435411</v>
       </c>
       <c r="M4">
-        <v>0.186815071447505</v>
+        <v>0.1617081404684697</v>
       </c>
       <c r="N4">
-        <v>0.9412275691681931</v>
+        <v>1.864105693901423</v>
       </c>
       <c r="O4">
-        <v>1.52513299717512</v>
+        <v>3.177128910114277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7181950964087207</v>
+        <v>0.4045161232638748</v>
       </c>
       <c r="C5">
-        <v>0.1135024303270455</v>
+        <v>0.1615541415053414</v>
       </c>
       <c r="D5">
-        <v>0.05950301093457</v>
+        <v>0.03949248099451808</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4775329906138808</v>
+        <v>0.8902944053646422</v>
       </c>
       <c r="G5">
-        <v>0.000816446745574211</v>
+        <v>0.002459628632768455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3896403919910014</v>
+        <v>0.8734620111411644</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6346924594156462</v>
+        <v>0.2111652990645183</v>
       </c>
       <c r="L5">
-        <v>0.1904142505316457</v>
+        <v>0.2909913055576325</v>
       </c>
       <c r="M5">
-        <v>0.1797879429256284</v>
+        <v>0.1599433255534031</v>
       </c>
       <c r="N5">
-        <v>0.9519342433612177</v>
+        <v>1.868844079111827</v>
       </c>
       <c r="O5">
-        <v>1.519554221000959</v>
+        <v>3.181442092806961</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7130804322462438</v>
+        <v>0.4030838505111092</v>
       </c>
       <c r="C6">
-        <v>0.1133508977746089</v>
+        <v>0.1615010011640337</v>
       </c>
       <c r="D6">
-        <v>0.05922524251896277</v>
+        <v>0.03939393055211582</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4767022459969681</v>
+        <v>0.8903601314531215</v>
       </c>
       <c r="G6">
-        <v>0.0008165912070892678</v>
+        <v>0.00245972921024017</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3897537395423356</v>
+        <v>0.8737407050485615</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6302310354134875</v>
+        <v>0.2098163130261099</v>
       </c>
       <c r="L6">
-        <v>0.1896356934870909</v>
+        <v>0.2908667142784012</v>
       </c>
       <c r="M6">
-        <v>0.1786226865267118</v>
+        <v>0.159651421945334</v>
       </c>
       <c r="N6">
-        <v>0.9537273868267948</v>
+        <v>1.869639241280423</v>
       </c>
       <c r="O6">
-        <v>1.518667173648353</v>
+        <v>3.182181407585517</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7485945622654242</v>
+        <v>0.4130373524406536</v>
       </c>
       <c r="C7">
-        <v>0.1144025381204514</v>
+        <v>0.1618692979965672</v>
       </c>
       <c r="D7">
-        <v>0.06115149342108595</v>
+        <v>0.04007658250915114</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4825405781028209</v>
+        <v>0.889945761710436</v>
       </c>
       <c r="G7">
-        <v>0.0008155949018186456</v>
+        <v>0.002459037674144575</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3890223549269507</v>
+        <v>0.8718397754196232</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6611961944389151</v>
+        <v>0.2191788648651567</v>
       </c>
       <c r="L7">
-        <v>0.1950604983371278</v>
+        <v>0.2917448103267901</v>
       </c>
       <c r="M7">
-        <v>0.1867201925245112</v>
+        <v>0.1616842630470217</v>
       </c>
       <c r="N7">
-        <v>0.9413709335663316</v>
+        <v>1.864169037210865</v>
       </c>
       <c r="O7">
-        <v>1.525055108089191</v>
+        <v>3.177185529845701</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9056927909055901</v>
+        <v>0.4572518628789339</v>
       </c>
       <c r="C8">
-        <v>0.1190406732014395</v>
+        <v>0.1634806342935775</v>
       </c>
       <c r="D8">
-        <v>0.06960979003831369</v>
+        <v>0.04305427423658159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5101529771746911</v>
+        <v>0.8891518354489989</v>
       </c>
       <c r="G8">
-        <v>0.0008113554814007107</v>
+        <v>0.002456148595264202</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3872024407810102</v>
+        <v>0.8642801427003661</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7978420882206194</v>
+        <v>0.260468670475916</v>
       </c>
       <c r="L8">
-        <v>0.2195373547192077</v>
+        <v>0.2959480652904745</v>
       </c>
       <c r="M8">
-        <v>0.2227044697636558</v>
+        <v>0.1708199022267678</v>
       </c>
       <c r="N8">
-        <v>0.8891062293844214</v>
+        <v>1.841244706617411</v>
       </c>
       <c r="O8">
-        <v>1.559143220111466</v>
+        <v>3.158497730356359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.21582524544516</v>
+        <v>0.5449700801460722</v>
       </c>
       <c r="C9">
-        <v>0.1281428309040464</v>
+        <v>0.1665894004648649</v>
       </c>
       <c r="D9">
-        <v>0.08606578376236484</v>
+        <v>0.04876746394604226</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5716198246179758</v>
+        <v>0.8913071903246319</v>
       </c>
       <c r="G9">
-        <v>0.0008035892867025995</v>
+        <v>0.00245106363058039</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3890716173739754</v>
+        <v>0.8524301832512755</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.066370446170936</v>
+        <v>0.3413210640961495</v>
       </c>
       <c r="L9">
-        <v>0.2697218745493473</v>
+        <v>0.3053658773178682</v>
       </c>
       <c r="M9">
-        <v>0.2943844195022649</v>
+        <v>0.1893207779654063</v>
       </c>
       <c r="N9">
-        <v>0.7951114806118771</v>
+        <v>1.800652218175659</v>
       </c>
       <c r="O9">
-        <v>1.649097272825117</v>
+        <v>3.133904399788292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.445658319741682</v>
+        <v>0.6100114461708017</v>
       </c>
       <c r="C10">
-        <v>0.1348517359667198</v>
+        <v>0.1688414877304822</v>
       </c>
       <c r="D10">
-        <v>0.09809732648557912</v>
+        <v>0.05288736332612132</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6219175213350923</v>
+        <v>0.8951502148792443</v>
       </c>
       <c r="G10">
-        <v>0.0007981998955126366</v>
+        <v>0.002447678183321219</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3941383033723511</v>
+        <v>0.8455339334288468</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.264585380776339</v>
+        <v>0.4006356261407404</v>
       </c>
       <c r="L10">
-        <v>0.3081786655593532</v>
+        <v>0.3129984473619629</v>
       </c>
       <c r="M10">
-        <v>0.347943884391789</v>
+        <v>0.2032656492345026</v>
       </c>
       <c r="N10">
-        <v>0.7315930804983231</v>
+        <v>1.77348404253109</v>
       </c>
       <c r="O10">
-        <v>1.731181891017684</v>
+        <v>3.123173600501474</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.550816277253773</v>
+        <v>0.6397250623340085</v>
       </c>
       <c r="C11">
-        <v>0.137912774129525</v>
+        <v>0.1698589322877098</v>
       </c>
       <c r="D11">
-        <v>0.1035630042714502</v>
+        <v>0.0547446285953086</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6460737664337373</v>
+        <v>0.8973884691440475</v>
       </c>
       <c r="G11">
-        <v>0.0007958128477363324</v>
+        <v>0.002446213431851733</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3973340212110372</v>
+        <v>0.8427889706567342</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.355098543904631</v>
+        <v>0.4275971392585518</v>
       </c>
       <c r="L11">
-        <v>0.326077747452274</v>
+        <v>0.3166249832002848</v>
       </c>
       <c r="M11">
-        <v>0.3725552581430307</v>
+        <v>0.2096850714121103</v>
       </c>
       <c r="N11">
-        <v>0.7039842326897383</v>
+        <v>1.7617001956509</v>
       </c>
       <c r="O11">
-        <v>1.772446558712119</v>
+        <v>3.119883315057251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.590738726687874</v>
+        <v>0.6509944169608559</v>
       </c>
       <c r="C12">
-        <v>0.1390736025855404</v>
+        <v>0.1702431817431886</v>
       </c>
       <c r="D12">
-        <v>0.1056320422532693</v>
+        <v>0.05544547633562047</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6554185304439457</v>
+        <v>0.8983064190422283</v>
       </c>
       <c r="G12">
-        <v>0.0007949178848500277</v>
+        <v>0.002445669542626242</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3986801293434681</v>
+        <v>0.8418058614552706</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.389434984913834</v>
+        <v>0.4378033450510941</v>
       </c>
       <c r="L12">
-        <v>0.3329190920291722</v>
+        <v>0.3180203912593385</v>
       </c>
       <c r="M12">
-        <v>0.3819148830774282</v>
+        <v>0.2121267286354325</v>
       </c>
       <c r="N12">
-        <v>0.6937220494484362</v>
+        <v>1.757320626269742</v>
       </c>
       <c r="O12">
-        <v>1.788676436878177</v>
+        <v>3.118865978662029</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.58213596441044</v>
+        <v>0.6485665941215473</v>
       </c>
       <c r="C13">
-        <v>0.138823516476144</v>
+        <v>0.1701604731196795</v>
       </c>
       <c r="D13">
-        <v>0.1051864624199794</v>
+        <v>0.05529464602363987</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6533969621088502</v>
+        <v>0.8981055938507083</v>
       </c>
       <c r="G13">
-        <v>0.0007951102380596669</v>
+        <v>0.002445786200327621</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3983840438183961</v>
+        <v>0.8420150862201936</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.382037108937794</v>
+        <v>0.4356054214470078</v>
       </c>
       <c r="L13">
-        <v>0.3314427835234994</v>
+        <v>0.3177188829305209</v>
       </c>
       <c r="M13">
-        <v>0.3798972769658562</v>
+        <v>0.2116003977308765</v>
       </c>
       <c r="N13">
-        <v>0.695923495701561</v>
+        <v>1.758260165660428</v>
       </c>
       <c r="O13">
-        <v>1.785153529129815</v>
+        <v>3.119074915219443</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.554098603351861</v>
+        <v>0.6406518529285847</v>
       </c>
       <c r="C14">
-        <v>0.1380082402915477</v>
+        <v>0.1698905655840974</v>
       </c>
       <c r="D14">
-        <v>0.103733236909278</v>
+        <v>0.05480233719227812</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6468385286026646</v>
+        <v>0.897462579636418</v>
       </c>
       <c r="G14">
-        <v>0.0007957390409635279</v>
+        <v>0.002446168470010052</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3974419948049572</v>
+        <v>0.8427069606227775</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.357922130465056</v>
+        <v>0.4284368837466559</v>
       </c>
       <c r="L14">
-        <v>0.3266392888589706</v>
+        <v>0.3167393415127862</v>
       </c>
       <c r="M14">
-        <v>0.3733244560526501</v>
+        <v>0.2098857331676385</v>
       </c>
       <c r="N14">
-        <v>0.7031360487915821</v>
+        <v>1.761338227933139</v>
       </c>
       <c r="O14">
-        <v>1.77376946302013</v>
+        <v>3.119795037323513</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.536938558104282</v>
+        <v>0.6358060986674161</v>
       </c>
       <c r="C15">
-        <v>0.1375090903384972</v>
+        <v>0.1697251040178713</v>
       </c>
       <c r="D15">
-        <v>0.102843015634555</v>
+        <v>0.05450046282732757</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.642847422322653</v>
+        <v>0.8970778764565281</v>
       </c>
       <c r="G15">
-        <v>0.0007961253576499898</v>
+        <v>0.002446404023759196</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3968829098045035</v>
+        <v>0.8431380905684662</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.343159320233383</v>
+        <v>0.4240454718065223</v>
       </c>
       <c r="L15">
-        <v>0.3237054173239216</v>
+        <v>0.3161422217764454</v>
       </c>
       <c r="M15">
-        <v>0.3693037339010985</v>
+        <v>0.2088368488115293</v>
       </c>
       <c r="N15">
-        <v>0.7075792779580268</v>
+        <v>1.763234402873412</v>
       </c>
       <c r="O15">
-        <v>1.766876249325378</v>
+        <v>3.12026590073512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.438799390528061</v>
+        <v>0.6080720698229811</v>
       </c>
       <c r="C16">
-        <v>0.1346519041820216</v>
+        <v>0.1687748517492622</v>
       </c>
       <c r="D16">
-        <v>0.09774001262938725</v>
+        <v>0.05276564421968288</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6203656899518464</v>
+        <v>0.8950137924311861</v>
       </c>
       <c r="G16">
-        <v>0.0007983571670097555</v>
+        <v>0.002447775419458871</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.393948042676179</v>
+        <v>0.8457212108673033</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.258678030284869</v>
+        <v>0.398873161497761</v>
       </c>
       <c r="L16">
-        <v>0.3070174972383057</v>
+        <v>0.3127645447171545</v>
       </c>
       <c r="M16">
-        <v>0.3463408052419297</v>
+        <v>0.2028476385868387</v>
       </c>
       <c r="N16">
-        <v>0.7334239142203203</v>
+        <v>1.774265718632814</v>
       </c>
       <c r="O16">
-        <v>1.728567435884742</v>
+        <v>3.123420631309784</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.378759219037818</v>
+        <v>0.5910899355014294</v>
       </c>
       <c r="C17">
-        <v>0.1329017009082065</v>
+        <v>0.1681900835227452</v>
       </c>
       <c r="D17">
-        <v>0.0946078250188549</v>
+        <v>0.05169704110734585</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6069101995663431</v>
+        <v>0.8938729874889972</v>
       </c>
       <c r="G17">
-        <v>0.0007997426288593187</v>
+        <v>0.002448635979121038</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3923812071360224</v>
+        <v>0.8474062845533865</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.206947640545025</v>
+        <v>0.3834250234456817</v>
       </c>
       <c r="L17">
-        <v>0.2968872534774505</v>
+        <v>0.3107319409082692</v>
       </c>
       <c r="M17">
-        <v>0.3323200234659822</v>
+        <v>0.1991927724717044</v>
       </c>
       <c r="N17">
-        <v>0.7496135140070517</v>
+        <v>1.781180382078848</v>
       </c>
       <c r="O17">
-        <v>1.706098637257753</v>
+        <v>3.125763367752114</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.344281803706536</v>
+        <v>0.5813341577324707</v>
       </c>
       <c r="C18">
-        <v>0.1318958650544388</v>
+        <v>0.1678530788762274</v>
       </c>
       <c r="D18">
-        <v>0.09280554010822328</v>
+        <v>0.05108082008570847</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5992901393737711</v>
+        <v>0.8932629576303768</v>
       </c>
       <c r="G18">
-        <v>0.0008005456124480028</v>
+        <v>0.00244913804156863</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3915633587396101</v>
+        <v>0.8484124105488924</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.177225346756444</v>
+        <v>0.3745377193916397</v>
       </c>
       <c r="L18">
-        <v>0.2910983909070382</v>
+        <v>0.3095773831793593</v>
       </c>
       <c r="M18">
-        <v>0.3242786054212203</v>
+        <v>0.1970977362239665</v>
       </c>
       <c r="N18">
-        <v>0.7590458954615049</v>
+        <v>1.785211642679072</v>
       </c>
       <c r="O18">
-        <v>1.693542008854706</v>
+        <v>3.127260631348662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.332617558435516</v>
+        <v>0.5780330824298971</v>
       </c>
       <c r="C19">
-        <v>0.131555439032617</v>
+        <v>0.1677388619674431</v>
       </c>
       <c r="D19">
-        <v>0.09219518000688964</v>
+        <v>0.05087190622734283</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5967301779598628</v>
+        <v>0.8930643379533123</v>
       </c>
       <c r="G19">
-        <v>0.0008008185467722013</v>
+        <v>0.002449309250288654</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3913005337968514</v>
+        <v>0.8487594093099027</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.167166986224174</v>
+        <v>0.3715283128749434</v>
       </c>
       <c r="L19">
-        <v>0.2891447200216533</v>
+        <v>0.3091889701711068</v>
       </c>
       <c r="M19">
-        <v>0.3215597362676235</v>
+        <v>0.1963896246426984</v>
       </c>
       <c r="N19">
-        <v>0.7622600135804307</v>
+        <v>1.786585854400707</v>
       </c>
       <c r="O19">
-        <v>1.689352387359548</v>
+        <v>3.127793310345936</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.385144690671723</v>
+        <v>0.5928964862144142</v>
       </c>
       <c r="C20">
-        <v>0.1330879240813445</v>
+        <v>0.1682524017162237</v>
       </c>
       <c r="D20">
-        <v>0.09494132491219887</v>
+        <v>0.05181096037130573</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6083301266669849</v>
+        <v>0.8939896544329571</v>
       </c>
       <c r="G20">
-        <v>0.0007995945148253638</v>
+        <v>0.002448543637677131</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3925393172478202</v>
+        <v>0.8472230852283111</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.212451071008587</v>
+        <v>0.3850697090171593</v>
       </c>
       <c r="L20">
-        <v>0.297961688385783</v>
+        <v>0.3109468106456745</v>
       </c>
       <c r="M20">
-        <v>0.3338101523800958</v>
+        <v>0.199581100651713</v>
       </c>
       <c r="N20">
-        <v>0.7478775720479818</v>
+        <v>1.78043870205565</v>
       </c>
       <c r="O20">
-        <v>1.708452234776388</v>
+        <v>3.125498478798846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.562330984810501</v>
+        <v>0.6429761358796497</v>
       </c>
       <c r="C21">
-        <v>0.1382476579802443</v>
+        <v>0.1699698722308085</v>
       </c>
       <c r="D21">
-        <v>0.1041601001426145</v>
+        <v>0.05494700717557777</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6487594293529568</v>
+        <v>0.8976495394030124</v>
       </c>
       <c r="G21">
-        <v>0.0007955541058340354</v>
+        <v>0.002446055896028597</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3977149425508344</v>
+        <v>0.8425022114184841</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.365003530522728</v>
+        <v>0.4305425570783257</v>
       </c>
       <c r="L21">
-        <v>0.3280484299393862</v>
+        <v>0.3170264570314743</v>
       </c>
       <c r="M21">
-        <v>0.3752539359890648</v>
+        <v>0.2103890807946271</v>
       </c>
       <c r="N21">
-        <v>0.7010122533992942</v>
+        <v>1.760431881324301</v>
       </c>
       <c r="O21">
-        <v>1.777096523204335</v>
+        <v>3.119577316758125</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.678730923866567</v>
+        <v>0.6758075040796143</v>
       </c>
       <c r="C22">
-        <v>0.14162982905615</v>
+        <v>0.1710862971118274</v>
       </c>
       <c r="D22">
-        <v>0.1101812450924129</v>
+        <v>0.05698225284162106</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6763395129950993</v>
+        <v>0.900451620074314</v>
       </c>
       <c r="G22">
-        <v>0.0007929655263256022</v>
+        <v>0.002444492826886979</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4018939840859161</v>
+        <v>0.8397452691910914</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.465067304868768</v>
+        <v>0.4602408519615153</v>
       </c>
       <c r="L22">
-        <v>0.3480837196767226</v>
+        <v>0.3211287334556516</v>
       </c>
       <c r="M22">
-        <v>0.4025742259985137</v>
+        <v>0.2175153794806945</v>
       </c>
       <c r="N22">
-        <v>0.6715101390312235</v>
+        <v>1.74783842039111</v>
       </c>
       <c r="O22">
-        <v>1.82549938983945</v>
+        <v>3.117039997542349</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.616546346557527</v>
+        <v>0.6582757236768941</v>
       </c>
       <c r="C23">
-        <v>0.1398236562937569</v>
+        <v>0.1704910002480844</v>
       </c>
       <c r="D23">
-        <v>0.1069678655258883</v>
+        <v>0.05589732567531769</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6615088022835849</v>
+        <v>0.8989186015224533</v>
       </c>
       <c r="G23">
-        <v>0.0007943424503821794</v>
+        <v>0.002445321334647209</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3995879511887708</v>
+        <v>0.841186665648344</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.411624232786693</v>
+        <v>0.4443923910814078</v>
       </c>
       <c r="L23">
-        <v>0.3373547059028112</v>
+        <v>0.3189275092922941</v>
       </c>
       <c r="M23">
-        <v>0.3879699238935785</v>
+        <v>0.2137062537865972</v>
       </c>
       <c r="N23">
-        <v>0.687150155321812</v>
+        <v>1.754515663230136</v>
       </c>
       <c r="O23">
-        <v>1.799328235035119</v>
+        <v>3.118272351694117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.382257693933127</v>
+        <v>0.5920797212958746</v>
       </c>
       <c r="C24">
-        <v>0.133003731430307</v>
+        <v>0.1682242301939141</v>
       </c>
       <c r="D24">
-        <v>0.09479055446272611</v>
+        <v>0.0517594632852294</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6076878183465411</v>
+        <v>0.8939367665310129</v>
       </c>
       <c r="G24">
-        <v>0.0007996614570282027</v>
+        <v>0.00244858536254061</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3924675778957614</v>
+        <v>0.8473057932824481</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.209962914283949</v>
+        <v>0.3843261652077672</v>
       </c>
       <c r="L24">
-        <v>0.2974758272649183</v>
+        <v>0.3108496243814614</v>
       </c>
       <c r="M24">
-        <v>0.3331364052563899</v>
+        <v>0.1994055181744585</v>
       </c>
       <c r="N24">
-        <v>0.748662003374805</v>
+        <v>1.780773841380611</v>
       </c>
       <c r="O24">
-        <v>1.707387051920477</v>
+        <v>3.125617766615477</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.131633486139492</v>
+        <v>0.5211338494018776</v>
       </c>
       <c r="C25">
-        <v>0.1256780208755544</v>
+        <v>0.1657539455850454</v>
       </c>
       <c r="D25">
-        <v>0.08162589226734696</v>
+        <v>0.04723546525708144</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5541403345108904</v>
+        <v>0.8903270580901861</v>
       </c>
       <c r="G25">
-        <v>0.0008056333867003107</v>
+        <v>0.002452377455620935</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.387946002595676</v>
+        <v>0.8553178266520476</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9936078837423281</v>
+        <v>0.3194625550210901</v>
       </c>
       <c r="L25">
-        <v>0.2558862900961003</v>
+        <v>0.3026926166362927</v>
       </c>
       <c r="M25">
-        <v>0.2748521329141838</v>
+        <v>0.1842535812465869</v>
       </c>
       <c r="N25">
-        <v>0.8195940731830877</v>
+        <v>1.811167007235759</v>
       </c>
       <c r="O25">
-        <v>1.622098054238137</v>
+        <v>3.139268197544084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4693012460242301</v>
+        <v>0.9483729181094418</v>
       </c>
       <c r="C2">
-        <v>0.1639138001180811</v>
+        <v>0.120297239903536</v>
       </c>
       <c r="D2">
-        <v>0.04385257605817827</v>
+        <v>0.07189197895945654</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8891880782175861</v>
+        <v>0.518106070555497</v>
       </c>
       <c r="G2">
-        <v>0.002455405213520915</v>
+        <v>0.0008102444609063468</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8624332825623817</v>
+        <v>0.3870640394087097</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2716488505277255</v>
+        <v>0.8348842460375465</v>
       </c>
       <c r="L2">
-        <v>0.2971665877106915</v>
+        <v>0.2263083160819122</v>
       </c>
       <c r="M2">
-        <v>0.173335037061868</v>
+        <v>0.2325222508745597</v>
       </c>
       <c r="N2">
-        <v>1.835328718841951</v>
+        <v>0.8755074473934961</v>
       </c>
       <c r="O2">
-        <v>3.154250357694863</v>
+        <v>1.569876089061353</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4344328004809768</v>
+        <v>0.8247285012165264</v>
       </c>
       <c r="C3">
-        <v>0.1626536677307229</v>
+        <v>0.1166529758545565</v>
       </c>
       <c r="D3">
-        <v>0.04152777417815656</v>
+        <v>0.06526264220044453</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8893646934460406</v>
+        <v>0.4955778738447947</v>
       </c>
       <c r="G3">
-        <v>0.002457605324409473</v>
+        <v>0.0008135086481917175</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8680153509411674</v>
+        <v>0.3878681130140045</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2392153479422348</v>
+        <v>0.7274812908862316</v>
       </c>
       <c r="L3">
-        <v>0.2937218382855562</v>
+        <v>0.2068301412954412</v>
       </c>
       <c r="M3">
-        <v>0.1660851520942295</v>
+        <v>0.2041273637600121</v>
       </c>
       <c r="N3">
-        <v>1.85281748240822</v>
+        <v>0.9155822077643543</v>
       </c>
       <c r="O3">
-        <v>3.16748342244459</v>
+        <v>1.540451540230364</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4131539817925614</v>
+        <v>0.7490102986959641</v>
       </c>
       <c r="C4">
-        <v>0.1618735999780583</v>
+        <v>0.1144148415107864</v>
       </c>
       <c r="D4">
-        <v>0.04008455143407019</v>
+        <v>0.06117400911121962</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8899414794722986</v>
+        <v>0.4826098751419536</v>
       </c>
       <c r="G4">
-        <v>0.002459029671682291</v>
+        <v>0.0008155833305948895</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8718179859160138</v>
+        <v>0.3890145499448998</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2192884055372843</v>
+        <v>0.6615585013258567</v>
       </c>
       <c r="L4">
-        <v>0.2917552650435411</v>
+        <v>0.1951242584135642</v>
       </c>
       <c r="M4">
-        <v>0.1617081404684697</v>
+        <v>0.1868150714475014</v>
       </c>
       <c r="N4">
-        <v>1.864105693901423</v>
+        <v>0.9412275691681737</v>
       </c>
       <c r="O4">
-        <v>3.177128910114277</v>
+        <v>1.525132997175106</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4045161232638748</v>
+        <v>0.718195096408806</v>
       </c>
       <c r="C5">
-        <v>0.1615541415053414</v>
+        <v>0.113502430326804</v>
       </c>
       <c r="D5">
-        <v>0.03949248099451808</v>
+        <v>0.05950301093468369</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8902944053646422</v>
+        <v>0.4775329906138808</v>
       </c>
       <c r="G5">
-        <v>0.002459628632768455</v>
+        <v>0.000816446745455887</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8734620111411644</v>
+        <v>0.3896403919910014</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2111652990645183</v>
+        <v>0.6346924594157031</v>
       </c>
       <c r="L5">
-        <v>0.2909913055576325</v>
+        <v>0.1904142505317026</v>
       </c>
       <c r="M5">
-        <v>0.1599433255534031</v>
+        <v>0.1797879429256319</v>
       </c>
       <c r="N5">
-        <v>1.868844079111827</v>
+        <v>0.9519342433612719</v>
       </c>
       <c r="O5">
-        <v>3.181442092806961</v>
+        <v>1.519554221001016</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4030838505111092</v>
+        <v>0.7130804322462438</v>
       </c>
       <c r="C6">
-        <v>0.1615010011640337</v>
+        <v>0.113350897774616</v>
       </c>
       <c r="D6">
-        <v>0.03939393055211582</v>
+        <v>0.0592252425191262</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8903601314531215</v>
+        <v>0.4767022459969468</v>
       </c>
       <c r="G6">
-        <v>0.00245972921024017</v>
+        <v>0.0008165912070891763</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8737407050485615</v>
+        <v>0.3897537395423214</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2098163130261099</v>
+        <v>0.630231035413459</v>
       </c>
       <c r="L6">
-        <v>0.2908667142784012</v>
+        <v>0.1896356934870695</v>
       </c>
       <c r="M6">
-        <v>0.159651421945334</v>
+        <v>0.1786226865267082</v>
       </c>
       <c r="N6">
-        <v>1.869639241280423</v>
+        <v>0.9537273868267291</v>
       </c>
       <c r="O6">
-        <v>3.182181407585517</v>
+        <v>1.518667173648296</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4130373524406536</v>
+        <v>0.7485945622653389</v>
       </c>
       <c r="C7">
-        <v>0.1618692979965672</v>
+        <v>0.1144025381200393</v>
       </c>
       <c r="D7">
-        <v>0.04007658250915114</v>
+        <v>0.06115149342114279</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.889945761710436</v>
+        <v>0.482540578102828</v>
       </c>
       <c r="G7">
-        <v>0.002459037674144575</v>
+        <v>0.0008155949018756554</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8718397754196232</v>
+        <v>0.3890223549269543</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2191788648651567</v>
+        <v>0.6611961944389151</v>
       </c>
       <c r="L7">
-        <v>0.2917448103267901</v>
+        <v>0.1950604983371633</v>
       </c>
       <c r="M7">
-        <v>0.1616842630470217</v>
+        <v>0.1867201925245148</v>
       </c>
       <c r="N7">
-        <v>1.864169037210865</v>
+        <v>0.9413709335663278</v>
       </c>
       <c r="O7">
-        <v>3.177185529845701</v>
+        <v>1.525055108089234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4572518628789339</v>
+        <v>0.9056927909055617</v>
       </c>
       <c r="C8">
-        <v>0.1634806342935775</v>
+        <v>0.1190406732015106</v>
       </c>
       <c r="D8">
-        <v>0.04305427423658159</v>
+        <v>0.06960979003844159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8891518354489989</v>
+        <v>0.510152977174684</v>
       </c>
       <c r="G8">
-        <v>0.002456148595264202</v>
+        <v>0.0008113554813804344</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8642801427003661</v>
+        <v>0.3872024407810208</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.260468670475916</v>
+        <v>0.7978420882206194</v>
       </c>
       <c r="L8">
-        <v>0.2959480652904745</v>
+        <v>0.2195373547191934</v>
       </c>
       <c r="M8">
-        <v>0.1708199022267678</v>
+        <v>0.2227044697636487</v>
       </c>
       <c r="N8">
-        <v>1.841244706617411</v>
+        <v>0.8891062293844683</v>
       </c>
       <c r="O8">
-        <v>3.158497730356359</v>
+        <v>1.559143220111466</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5449700801460722</v>
+        <v>1.215825245445103</v>
       </c>
       <c r="C9">
-        <v>0.1665894004648649</v>
+        <v>0.1281428309041459</v>
       </c>
       <c r="D9">
-        <v>0.04876746394604226</v>
+        <v>0.08606578376240748</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8913071903246319</v>
+        <v>0.5716198246179829</v>
       </c>
       <c r="G9">
-        <v>0.00245106363058039</v>
+        <v>0.0008035892867243457</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8524301832512755</v>
+        <v>0.3890716173739932</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3413210640961495</v>
+        <v>1.066370446170765</v>
       </c>
       <c r="L9">
-        <v>0.3053658773178682</v>
+        <v>0.2697218745494609</v>
       </c>
       <c r="M9">
-        <v>0.1893207779654063</v>
+        <v>0.294384419502272</v>
       </c>
       <c r="N9">
-        <v>1.800652218175659</v>
+        <v>0.7951114806118746</v>
       </c>
       <c r="O9">
-        <v>3.133904399788292</v>
+        <v>1.649097272825117</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6100114461708017</v>
+        <v>1.445658319741682</v>
       </c>
       <c r="C10">
-        <v>0.1688414877304822</v>
+        <v>0.1348517359664214</v>
       </c>
       <c r="D10">
-        <v>0.05288736332612132</v>
+        <v>0.09809732648557912</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8951502148792443</v>
+        <v>0.6219175213350923</v>
       </c>
       <c r="G10">
-        <v>0.002447678183321219</v>
+        <v>0.0007981998955018371</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8455339334288468</v>
+        <v>0.394138303372344</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4006356261407404</v>
+        <v>1.264585380776339</v>
       </c>
       <c r="L10">
-        <v>0.3129984473619629</v>
+        <v>0.3081786655592964</v>
       </c>
       <c r="M10">
-        <v>0.2032656492345026</v>
+        <v>0.3479438843917961</v>
       </c>
       <c r="N10">
-        <v>1.77348404253109</v>
+        <v>0.7315930804982558</v>
       </c>
       <c r="O10">
-        <v>3.123173600501474</v>
+        <v>1.731181891017627</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6397250623340085</v>
+        <v>1.550816277253745</v>
       </c>
       <c r="C11">
-        <v>0.1698589322877098</v>
+        <v>0.13791277412939</v>
       </c>
       <c r="D11">
-        <v>0.0547446285953086</v>
+        <v>0.1035630042713365</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8973884691440475</v>
+        <v>0.6460737664337231</v>
       </c>
       <c r="G11">
-        <v>0.002446213431851733</v>
+        <v>0.0007958128477073556</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8427889706567342</v>
+        <v>0.3973340212110301</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4275971392585518</v>
+        <v>1.355098543904745</v>
       </c>
       <c r="L11">
-        <v>0.3166249832002848</v>
+        <v>0.3260777474523451</v>
       </c>
       <c r="M11">
-        <v>0.2096850714121103</v>
+        <v>0.3725552581430378</v>
       </c>
       <c r="N11">
-        <v>1.7617001956509</v>
+        <v>0.7039842326897396</v>
       </c>
       <c r="O11">
-        <v>3.119883315057251</v>
+        <v>1.772446558712119</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6509944169608559</v>
+        <v>1.590738726687874</v>
       </c>
       <c r="C12">
-        <v>0.1702431817431886</v>
+        <v>0.1390736025862367</v>
       </c>
       <c r="D12">
-        <v>0.05544547633562047</v>
+        <v>0.1056320422531485</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8983064190422283</v>
+        <v>0.6554185304439528</v>
       </c>
       <c r="G12">
-        <v>0.002445669542626242</v>
+        <v>0.0007949178849036928</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8418058614552706</v>
+        <v>0.3986801293434752</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4378033450510941</v>
+        <v>1.389434984913777</v>
       </c>
       <c r="L12">
-        <v>0.3180203912593385</v>
+        <v>0.3329190920290728</v>
       </c>
       <c r="M12">
-        <v>0.2121267286354325</v>
+        <v>0.3819148830774139</v>
       </c>
       <c r="N12">
-        <v>1.757320626269742</v>
+        <v>0.6937220494484229</v>
       </c>
       <c r="O12">
-        <v>3.118865978662029</v>
+        <v>1.788676436878092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6485665941215473</v>
+        <v>1.582135964410242</v>
       </c>
       <c r="C13">
-        <v>0.1701604731196795</v>
+        <v>0.1388235164762435</v>
       </c>
       <c r="D13">
-        <v>0.05529464602363987</v>
+        <v>0.1051864624203276</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8981055938507083</v>
+        <v>0.6533969621088431</v>
       </c>
       <c r="G13">
-        <v>0.002445786200327621</v>
+        <v>0.0007951102381096191</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8420150862201936</v>
+        <v>0.3983840438183961</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4356054214470078</v>
+        <v>1.382037108937737</v>
       </c>
       <c r="L13">
-        <v>0.3177188829305209</v>
+        <v>0.3314427835235279</v>
       </c>
       <c r="M13">
-        <v>0.2116003977308765</v>
+        <v>0.3798972769658633</v>
       </c>
       <c r="N13">
-        <v>1.758260165660428</v>
+        <v>0.6959234957014941</v>
       </c>
       <c r="O13">
-        <v>3.119074915219443</v>
+        <v>1.785153529129815</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6406518529285847</v>
+        <v>1.554098603351832</v>
       </c>
       <c r="C14">
-        <v>0.1698905655840974</v>
+        <v>0.1380082402915335</v>
       </c>
       <c r="D14">
-        <v>0.05480233719227812</v>
+        <v>0.1037332369093562</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.897462579636418</v>
+        <v>0.6468385286026503</v>
       </c>
       <c r="G14">
-        <v>0.002446168470010052</v>
+        <v>0.0007957390409634887</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8427069606227775</v>
+        <v>0.3974419948049643</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4284368837466559</v>
+        <v>1.357922130465028</v>
       </c>
       <c r="L14">
-        <v>0.3167393415127862</v>
+        <v>0.3266392888589706</v>
       </c>
       <c r="M14">
-        <v>0.2098857331676385</v>
+        <v>0.3733244560526501</v>
       </c>
       <c r="N14">
-        <v>1.761338227933139</v>
+        <v>0.7031360487915723</v>
       </c>
       <c r="O14">
-        <v>3.119795037323513</v>
+        <v>1.773769463020102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6358060986674161</v>
+        <v>1.536938558104282</v>
       </c>
       <c r="C15">
-        <v>0.1697251040178713</v>
+        <v>0.1375090903387246</v>
       </c>
       <c r="D15">
-        <v>0.05450046282732757</v>
+        <v>0.1028430156345621</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8970778764565281</v>
+        <v>0.6428474223226672</v>
       </c>
       <c r="G15">
-        <v>0.002446404023759196</v>
+        <v>0.0007961253576214681</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8431380905684662</v>
+        <v>0.3968829098045035</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4240454718065223</v>
+        <v>1.343159320233298</v>
       </c>
       <c r="L15">
-        <v>0.3161422217764454</v>
+        <v>0.3237054173238931</v>
       </c>
       <c r="M15">
-        <v>0.2088368488115293</v>
+        <v>0.3693037339010914</v>
       </c>
       <c r="N15">
-        <v>1.763234402873412</v>
+        <v>0.7075792779580294</v>
       </c>
       <c r="O15">
-        <v>3.12026590073512</v>
+        <v>1.766876249325378</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6080720698229811</v>
+        <v>1.438799390527834</v>
       </c>
       <c r="C16">
-        <v>0.1687748517492622</v>
+        <v>0.1346519041820216</v>
       </c>
       <c r="D16">
-        <v>0.05276564421968288</v>
+        <v>0.09774001262933041</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8950137924311861</v>
+        <v>0.6203656899518464</v>
       </c>
       <c r="G16">
-        <v>0.002447775419458871</v>
+        <v>0.0007983571670381295</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8457212108673033</v>
+        <v>0.3939480426762003</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.398873161497761</v>
+        <v>1.258678030284926</v>
       </c>
       <c r="L16">
-        <v>0.3127645447171545</v>
+        <v>0.3070174972383342</v>
       </c>
       <c r="M16">
-        <v>0.2028476385868387</v>
+        <v>0.3463408052419439</v>
       </c>
       <c r="N16">
-        <v>1.774265718632814</v>
+        <v>0.7334239142203203</v>
       </c>
       <c r="O16">
-        <v>3.123420631309784</v>
+        <v>1.728567435884742</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5910899355014294</v>
+        <v>1.378759219037818</v>
       </c>
       <c r="C17">
-        <v>0.1681900835227452</v>
+        <v>0.1329017009077305</v>
       </c>
       <c r="D17">
-        <v>0.05169704110734585</v>
+        <v>0.09460782501884779</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8938729874889972</v>
+        <v>0.6069101995663502</v>
       </c>
       <c r="G17">
-        <v>0.002448635979121038</v>
+        <v>0.0007997426288586784</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8474062845533865</v>
+        <v>0.3923812071360189</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3834250234456817</v>
+        <v>1.206947640544968</v>
       </c>
       <c r="L17">
-        <v>0.3107319409082692</v>
+        <v>0.2968872534774363</v>
       </c>
       <c r="M17">
-        <v>0.1991927724717044</v>
+        <v>0.3323200234659822</v>
       </c>
       <c r="N17">
-        <v>1.781180382078848</v>
+        <v>0.7496135140070437</v>
       </c>
       <c r="O17">
-        <v>3.125763367752114</v>
+        <v>1.70609863725781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5813341577324707</v>
+        <v>1.344281803706593</v>
       </c>
       <c r="C18">
-        <v>0.1678530788762274</v>
+        <v>0.1318958650544388</v>
       </c>
       <c r="D18">
-        <v>0.05108082008570847</v>
+        <v>0.09280554010810249</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8932629576303768</v>
+        <v>0.5992901393737711</v>
       </c>
       <c r="G18">
-        <v>0.00244913804156863</v>
+        <v>0.000800545612367244</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8484124105488924</v>
+        <v>0.3915633587396101</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3745377193916397</v>
+        <v>1.177225346756472</v>
       </c>
       <c r="L18">
-        <v>0.3095773831793593</v>
+        <v>0.291098390907095</v>
       </c>
       <c r="M18">
-        <v>0.1970977362239665</v>
+        <v>0.3242786054212417</v>
       </c>
       <c r="N18">
-        <v>1.785211642679072</v>
+        <v>0.7590458954615085</v>
       </c>
       <c r="O18">
-        <v>3.127260631348662</v>
+        <v>1.693542008854706</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5780330824298971</v>
+        <v>1.332617558435402</v>
       </c>
       <c r="C19">
-        <v>0.1677388619674431</v>
+        <v>0.1315554390328586</v>
       </c>
       <c r="D19">
-        <v>0.05087190622734283</v>
+        <v>0.09219518000695359</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8930643379533123</v>
+        <v>0.5967301779598628</v>
       </c>
       <c r="G19">
-        <v>0.002449309250288654</v>
+        <v>0.0008008185467705545</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8487594093099027</v>
+        <v>0.3913005337968514</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3715283128749434</v>
+        <v>1.167166986224174</v>
       </c>
       <c r="L19">
-        <v>0.3091889701711068</v>
+        <v>0.2891447200217527</v>
       </c>
       <c r="M19">
-        <v>0.1963896246426984</v>
+        <v>0.3215597362676164</v>
       </c>
       <c r="N19">
-        <v>1.786585854400707</v>
+        <v>0.7622600135804807</v>
       </c>
       <c r="O19">
-        <v>3.127793310345936</v>
+        <v>1.689352387359577</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5928964862144142</v>
+        <v>1.385144690671723</v>
       </c>
       <c r="C20">
-        <v>0.1682524017162237</v>
+        <v>0.133087924081245</v>
       </c>
       <c r="D20">
-        <v>0.05181096037130573</v>
+        <v>0.09494132491208518</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8939896544329571</v>
+        <v>0.6083301266669849</v>
       </c>
       <c r="G20">
-        <v>0.002448543637677131</v>
+        <v>0.0007995945148479167</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8472230852283111</v>
+        <v>0.3925393172478202</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3850697090171593</v>
+        <v>1.212451071008644</v>
       </c>
       <c r="L20">
-        <v>0.3109468106456745</v>
+        <v>0.2979616883857545</v>
       </c>
       <c r="M20">
-        <v>0.199581100651713</v>
+        <v>0.33381015238011</v>
       </c>
       <c r="N20">
-        <v>1.78043870205565</v>
+        <v>0.7478775720479747</v>
       </c>
       <c r="O20">
-        <v>3.125498478798846</v>
+        <v>1.708452234776445</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6429761358796497</v>
+        <v>1.562330984810359</v>
       </c>
       <c r="C21">
-        <v>0.1699698722308085</v>
+        <v>0.1382476579800098</v>
       </c>
       <c r="D21">
-        <v>0.05494700717557777</v>
+        <v>0.1041601001426855</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8976495394030124</v>
+        <v>0.6487594293529568</v>
       </c>
       <c r="G21">
-        <v>0.002446055896028597</v>
+        <v>0.0007955541058340796</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8425022114184841</v>
+        <v>0.3977149425508344</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4305425570783257</v>
+        <v>1.365003530522642</v>
       </c>
       <c r="L21">
-        <v>0.3170264570314743</v>
+        <v>0.3280484299394857</v>
       </c>
       <c r="M21">
-        <v>0.2103890807946271</v>
+        <v>0.3752539359890648</v>
       </c>
       <c r="N21">
-        <v>1.760431881324301</v>
+        <v>0.701012253399284</v>
       </c>
       <c r="O21">
-        <v>3.119577316758125</v>
+        <v>1.777096523204335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6758075040796143</v>
+        <v>1.678730923866567</v>
       </c>
       <c r="C22">
-        <v>0.1710862971118274</v>
+        <v>0.1416298290559226</v>
       </c>
       <c r="D22">
-        <v>0.05698225284162106</v>
+        <v>0.1101812450925124</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.900451620074314</v>
+        <v>0.6763395129951135</v>
       </c>
       <c r="G22">
-        <v>0.002444492826886979</v>
+        <v>0.0007929655263246849</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8397452691910914</v>
+        <v>0.4018939840859375</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4602408519615153</v>
+        <v>1.465067304868597</v>
       </c>
       <c r="L22">
-        <v>0.3211287334556516</v>
+        <v>0.3480837196766942</v>
       </c>
       <c r="M22">
-        <v>0.2175153794806945</v>
+        <v>0.4025742259985208</v>
       </c>
       <c r="N22">
-        <v>1.74783842039111</v>
+        <v>0.6715101390312095</v>
       </c>
       <c r="O22">
-        <v>3.117039997542349</v>
+        <v>1.825499389839393</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6582757236768941</v>
+        <v>1.616546346557755</v>
       </c>
       <c r="C23">
-        <v>0.1704910002480844</v>
+        <v>0.1398236562940838</v>
       </c>
       <c r="D23">
-        <v>0.05589732567531769</v>
+        <v>0.1069678655258457</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8989186015224533</v>
+        <v>0.6615088022835849</v>
       </c>
       <c r="G23">
-        <v>0.002445321334647209</v>
+        <v>0.0007943424504073697</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.841186665648344</v>
+        <v>0.3995879511887708</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4443923910814078</v>
+        <v>1.411624232786721</v>
       </c>
       <c r="L23">
-        <v>0.3189275092922941</v>
+        <v>0.3373547059028112</v>
       </c>
       <c r="M23">
-        <v>0.2137062537865972</v>
+        <v>0.3879699238935785</v>
       </c>
       <c r="N23">
-        <v>1.754515663230136</v>
+        <v>0.6871501553218098</v>
       </c>
       <c r="O23">
-        <v>3.118272351694117</v>
+        <v>1.799328235035091</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5920797212958746</v>
+        <v>1.382257693933212</v>
       </c>
       <c r="C24">
-        <v>0.1682242301939141</v>
+        <v>0.1330037314305414</v>
       </c>
       <c r="D24">
-        <v>0.0517594632852294</v>
+        <v>0.09479055446249163</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8939367665310129</v>
+        <v>0.6076878183465482</v>
       </c>
       <c r="G24">
-        <v>0.00244858536254061</v>
+        <v>0.0007996614570509125</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8473057932824481</v>
+        <v>0.392467577895772</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3843261652077672</v>
+        <v>1.209962914283807</v>
       </c>
       <c r="L24">
-        <v>0.3108496243814614</v>
+        <v>0.2974758272648756</v>
       </c>
       <c r="M24">
-        <v>0.1994055181744585</v>
+        <v>0.333136405256397</v>
       </c>
       <c r="N24">
-        <v>1.780773841380611</v>
+        <v>0.7486620033748554</v>
       </c>
       <c r="O24">
-        <v>3.125617766615477</v>
+        <v>1.707387051920449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5211338494018776</v>
+        <v>1.131633486139464</v>
       </c>
       <c r="C25">
-        <v>0.1657539455850454</v>
+        <v>0.1256780208755472</v>
       </c>
       <c r="D25">
-        <v>0.04723546525708144</v>
+        <v>0.0816258922672759</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8903270580901861</v>
+        <v>0.5541403345108762</v>
       </c>
       <c r="G25">
-        <v>0.002452377455620935</v>
+        <v>0.0008056333866778369</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8553178266520476</v>
+        <v>0.3879460025956689</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3194625550210901</v>
+        <v>0.9936078837423565</v>
       </c>
       <c r="L25">
-        <v>0.3026926166362927</v>
+        <v>0.2558862900960719</v>
       </c>
       <c r="M25">
-        <v>0.1842535812465869</v>
+        <v>0.2748521329141838</v>
       </c>
       <c r="N25">
-        <v>1.811167007235759</v>
+        <v>0.8195940731831346</v>
       </c>
       <c r="O25">
-        <v>3.139268197544084</v>
+        <v>1.622098054238137</v>
       </c>
     </row>
   </sheetData>
